--- a/output/FUNDO_18961501000108.xlsx
+++ b/output/FUNDO_18961501000108.xlsx
@@ -1340,10 +1340,10 @@
         <v>44165</v>
       </c>
       <c r="B87">
-        <v>1.153611</v>
+        <v>1.1536562</v>
       </c>
       <c r="C87">
-        <v>0.01133182695626056</v>
+        <v>0.01135305279443566</v>
       </c>
     </row>
   </sheetData>

--- a/output/FUNDO_18961501000108.xlsx
+++ b/output/FUNDO_18961501000108.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO GARDE DUMAS</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,964 +383,706 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41578</v>
       </c>
       <c r="B2">
-        <v>-0.0003402000000000127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41608</v>
       </c>
       <c r="B3">
-        <v>-0.004250399999999988</v>
-      </c>
-      <c r="C3">
         <v>-0.003911530702745081</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41639</v>
       </c>
       <c r="B4">
-        <v>0.003937999999999997</v>
-      </c>
-      <c r="C4">
         <v>0.00822335253762585</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41670</v>
       </c>
       <c r="B5">
-        <v>0.01041019999999993</v>
-      </c>
-      <c r="C5">
         <v>0.006446812452561845</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41698</v>
       </c>
       <c r="B6">
-        <v>0.01743249999999996</v>
-      </c>
-      <c r="C6">
         <v>0.006949949634316832</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41729</v>
       </c>
       <c r="B7">
-        <v>0.01276330000000003</v>
-      </c>
-      <c r="C7">
         <v>-0.004589198792057436</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41759</v>
       </c>
       <c r="B8">
-        <v>0.02173899999999995</v>
-      </c>
-      <c r="C8">
         <v>0.008862584179343713</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41790</v>
       </c>
       <c r="B9">
-        <v>0.0280476999999999</v>
-      </c>
-      <c r="C9">
         <v>0.006174473128656155</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41820</v>
       </c>
       <c r="B10">
-        <v>0.03790110000000002</v>
-      </c>
-      <c r="C10">
         <v>0.009584574723527028</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41851</v>
       </c>
       <c r="B11">
-        <v>0.05025349999999995</v>
-      </c>
-      <c r="C11">
         <v>0.01190132662929044</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41882</v>
       </c>
       <c r="B12">
-        <v>0.05581199999999997</v>
-      </c>
-      <c r="C12">
         <v>0.005292531755428653</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41912</v>
       </c>
       <c r="B13">
-        <v>0.06878540000000011</v>
-      </c>
-      <c r="C13">
         <v>0.01228760423257191</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41943</v>
       </c>
       <c r="B14">
-        <v>0.0773223999999999</v>
-      </c>
-      <c r="C14">
         <v>0.007987571686514316</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41973</v>
       </c>
       <c r="B15">
-        <v>0.1057680999999999</v>
-      </c>
-      <c r="C15">
         <v>0.02640407365520292</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42004</v>
       </c>
       <c r="B16">
-        <v>0.1224384000000001</v>
-      </c>
-      <c r="C16">
         <v>0.01507576498182583</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42035</v>
       </c>
       <c r="B17">
-        <v>0.1478254000000001</v>
-      </c>
-      <c r="C17">
         <v>0.02261772227322245</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42063</v>
       </c>
       <c r="B18">
-        <v>0.1736738</v>
-      </c>
-      <c r="C18">
         <v>0.02251945287149071</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42094</v>
       </c>
       <c r="B19">
-        <v>0.211851</v>
-      </c>
-      <c r="C19">
         <v>0.0325279477142626</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42124</v>
       </c>
       <c r="B20">
-        <v>0.2123980999999999</v>
-      </c>
-      <c r="C20">
         <v>0.0004514581413059826</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42155</v>
       </c>
       <c r="B21">
-        <v>0.2366372999999999</v>
-      </c>
-      <c r="C21">
         <v>0.01999277300088154</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42185</v>
       </c>
       <c r="B22">
-        <v>0.2553911</v>
-      </c>
-      <c r="C22">
         <v>0.01516515796507201</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42216</v>
       </c>
       <c r="B23">
-        <v>0.2817765999999999</v>
-      </c>
-      <c r="C23">
         <v>0.02101775295364128</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42247</v>
       </c>
       <c r="B24">
-        <v>0.2924404</v>
-      </c>
-      <c r="C24">
         <v>0.008319546479472306</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42277</v>
       </c>
       <c r="B25">
-        <v>0.3053524999999999</v>
-      </c>
-      <c r="C25">
         <v>0.009990480025229731</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42308</v>
       </c>
       <c r="B26">
-        <v>0.3416458</v>
-      </c>
-      <c r="C26">
         <v>0.02780344772772114</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42338</v>
       </c>
       <c r="B27">
-        <v>0.3597788</v>
-      </c>
-      <c r="C27">
         <v>0.01351548970674665</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42369</v>
       </c>
       <c r="B28">
-        <v>0.3883833999999999</v>
-      </c>
-      <c r="C28">
         <v>0.02103621559624247</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42400</v>
       </c>
       <c r="B29">
-        <v>0.4301847000000001</v>
-      </c>
-      <c r="C29">
         <v>0.03010789382817469</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42429</v>
       </c>
       <c r="B30">
-        <v>0.4407147</v>
-      </c>
-      <c r="C30">
         <v>0.007362685393012436</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42460</v>
       </c>
       <c r="B31">
-        <v>0.4215268999999999</v>
-      </c>
-      <c r="C31">
         <v>-0.01331825100417183</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42490</v>
       </c>
       <c r="B32">
-        <v>0.4844253000000001</v>
-      </c>
-      <c r="C32">
         <v>0.04424706982330062</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42521</v>
       </c>
       <c r="B33">
-        <v>0.5005541</v>
-      </c>
-      <c r="C33">
         <v>0.01086534970806552</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42551</v>
       </c>
       <c r="B34">
-        <v>0.5171904000000001</v>
-      </c>
-      <c r="C34">
         <v>0.01108677121338042</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42582</v>
       </c>
       <c r="B35">
-        <v>0.5345485999999999</v>
-      </c>
-      <c r="C35">
         <v>0.01144101623632721</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42613</v>
       </c>
       <c r="B36">
-        <v>0.5558909999999999</v>
-      </c>
-      <c r="C36">
         <v>0.01390793357733999</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42643</v>
       </c>
       <c r="B37">
-        <v>0.5706483</v>
-      </c>
-      <c r="C37">
         <v>0.009484790386987241</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42674</v>
       </c>
       <c r="B38">
-        <v>0.5920011000000001</v>
-      </c>
-      <c r="C38">
         <v>0.01359489581467743</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42704</v>
       </c>
       <c r="B39">
-        <v>0.6028317999999999</v>
-      </c>
-      <c r="C39">
         <v>0.00680319881688507</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42735</v>
       </c>
       <c r="B40">
-        <v>0.6380052000000001</v>
-      </c>
-      <c r="C40">
         <v>0.02194453591449852</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42766</v>
       </c>
       <c r="B41">
-        <v>0.6672891999999999</v>
-      </c>
-      <c r="C41">
         <v>0.01787784312284235</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42794</v>
       </c>
       <c r="B42">
-        <v>0.6895777999999999</v>
-      </c>
-      <c r="C42">
         <v>0.01336816672236596</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42825</v>
       </c>
       <c r="B43">
-        <v>0.7118256999999999</v>
-      </c>
-      <c r="C43">
         <v>0.01316772746422212</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42855</v>
       </c>
       <c r="B44">
-        <v>0.7239888999999999</v>
-      </c>
-      <c r="C44">
         <v>0.007105396302906408</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42886</v>
       </c>
       <c r="B45">
-        <v>0.7423976000000001</v>
-      </c>
-      <c r="C45">
         <v>0.0106779689822829</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42916</v>
       </c>
       <c r="B46">
-        <v>0.7699788000000001</v>
-      </c>
-      <c r="C46">
         <v>0.01582945247399326</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42947</v>
       </c>
       <c r="B47">
-        <v>0.8027983000000001</v>
-      </c>
-      <c r="C47">
         <v>0.0185423124841948</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42978</v>
       </c>
       <c r="B48">
-        <v>0.8296855000000001</v>
-      </c>
-      <c r="C48">
         <v>0.01491414763370913</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43008</v>
       </c>
       <c r="B49">
-        <v>0.8612287000000001</v>
-      </c>
-      <c r="C49">
         <v>0.01723968408778442</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43039</v>
       </c>
       <c r="B50">
-        <v>0.8491580999999999</v>
-      </c>
-      <c r="C50">
         <v>-0.006485285768481952</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43069</v>
       </c>
       <c r="B51">
-        <v>0.8516211</v>
-      </c>
-      <c r="C51">
         <v>0.001331957500010361</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43100</v>
       </c>
       <c r="B52">
-        <v>0.8767811999999999</v>
-      </c>
-      <c r="C52">
         <v>0.0135881471646655</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43131</v>
       </c>
       <c r="B53">
-        <v>0.9019523</v>
-      </c>
-      <c r="C53">
         <v>0.01341184577083365</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43159</v>
       </c>
       <c r="B54">
-        <v>0.9156177000000001</v>
-      </c>
-      <c r="C54">
         <v>0.007184933081655132</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43190</v>
       </c>
       <c r="B55">
-        <v>0.9302067999999999</v>
-      </c>
-      <c r="C55">
         <v>0.007615872415461578</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43220</v>
       </c>
       <c r="B56">
-        <v>0.9139664999999999</v>
-      </c>
-      <c r="C56">
         <v>-0.008413761675691966</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43251</v>
       </c>
       <c r="B57">
-        <v>0.8569551</v>
-      </c>
-      <c r="C57">
         <v>-0.02978704172721935</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43281</v>
       </c>
       <c r="B58">
-        <v>0.8741443</v>
-      </c>
-      <c r="C58">
         <v>0.009256658925140382</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43312</v>
       </c>
       <c r="B59">
-        <v>0.8762707999999999</v>
-      </c>
-      <c r="C59">
         <v>0.001134651157864486</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43343</v>
       </c>
       <c r="B60">
-        <v>0.8667516</v>
-      </c>
-      <c r="C60">
         <v>-0.005073468072945508</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43373</v>
       </c>
       <c r="B61">
-        <v>0.8786643999999999</v>
-      </c>
-      <c r="C61">
         <v>0.006381566781568537</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43404</v>
       </c>
       <c r="B62">
-        <v>0.9087689999999999</v>
-      </c>
-      <c r="C62">
         <v>0.01602446929850809</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43434</v>
       </c>
       <c r="B63">
-        <v>0.8882174</v>
-      </c>
-      <c r="C63">
         <v>-0.01076693932057771</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43465</v>
       </c>
       <c r="B64">
-        <v>0.9091343000000001</v>
-      </c>
-      <c r="C64">
         <v>0.01107759095960037</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43496</v>
       </c>
       <c r="B65">
-        <v>0.974526</v>
-      </c>
-      <c r="C65">
         <v>0.03425201673868616</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43524</v>
       </c>
       <c r="B66">
-        <v>0.9724079999999999</v>
-      </c>
-      <c r="C66">
         <v>-0.001072662502291766</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43555</v>
       </c>
       <c r="B67">
-        <v>0.9514586</v>
-      </c>
-      <c r="C67">
         <v>-0.01062123049592167</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43585</v>
       </c>
       <c r="B68">
-        <v>0.9579867</v>
-      </c>
-      <c r="C68">
         <v>0.003345241349214323</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43616</v>
       </c>
       <c r="B69">
-        <v>0.9660377</v>
-      </c>
-      <c r="C69">
         <v>0.00411187675585345</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43646</v>
       </c>
       <c r="B70">
-        <v>1.00659</v>
-      </c>
-      <c r="C70">
         <v>0.02062641016497291</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43677</v>
       </c>
       <c r="B71">
-        <v>1.0507197</v>
-      </c>
-      <c r="C71">
         <v>0.02199238509112478</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43708</v>
       </c>
       <c r="B72">
-        <v>1.0283592</v>
-      </c>
-      <c r="C72">
         <v>-0.01090373296750402</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43738</v>
       </c>
       <c r="B73">
-        <v>1.03964</v>
-      </c>
-      <c r="C73">
         <v>0.005561539593184284</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43769</v>
       </c>
       <c r="B74">
-        <v>1.0755397</v>
-      </c>
-      <c r="C74">
         <v>0.01760099821537153</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43799</v>
       </c>
       <c r="B75">
-        <v>1.0519341</v>
-      </c>
-      <c r="C75">
         <v>-0.0113732346338643</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43830</v>
       </c>
       <c r="B76">
-        <v>1.1183033</v>
-      </c>
-      <c r="C76">
         <v>0.03234470346781615</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43861</v>
       </c>
       <c r="B77">
-        <v>1.1151375</v>
-      </c>
-      <c r="C77">
         <v>-0.001494497978641762</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43890</v>
       </c>
       <c r="B78">
-        <v>1.0912512</v>
-      </c>
-      <c r="C78">
         <v>-0.01129302468515636</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43921</v>
       </c>
       <c r="B79">
-        <v>1.0267724</v>
-      </c>
-      <c r="C79">
         <v>-0.0308326422000379</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43951</v>
       </c>
       <c r="B80">
-        <v>1.0648081</v>
-      </c>
-      <c r="C80">
         <v>0.01876663605642159</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43982</v>
       </c>
       <c r="B81">
-        <v>1.0873266</v>
-      </c>
-      <c r="C81">
         <v>0.0109058560938422</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>44012</v>
       </c>
       <c r="B82">
-        <v>1.1392988</v>
-      </c>
-      <c r="C82">
         <v>0.0248989305267322</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>44043</v>
       </c>
       <c r="B83">
-        <v>1.1958458</v>
-      </c>
-      <c r="C83">
         <v>0.02643249274014448</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>44074</v>
       </c>
       <c r="B84">
-        <v>1.1829379</v>
-      </c>
-      <c r="C84">
         <v>-0.005878327157580743</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>44104</v>
       </c>
       <c r="B85">
-        <v>1.1140985</v>
-      </c>
-      <c r="C85">
         <v>-0.0315352076666956</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>44135</v>
       </c>
       <c r="B86">
-        <v>1.1294801</v>
-      </c>
-      <c r="C86">
         <v>0.007275725326894689</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>44165</v>
       </c>
       <c r="B87">
-        <v>1.1536562</v>
-      </c>
-      <c r="C87">
-        <v>0.01135305279443566</v>
+        <v>0.008665119716310121</v>
       </c>
     </row>
   </sheetData>
